--- a/aves.xlsx
+++ b/aves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIAZOVIEDO\Documents\GitHub\Clasificacion_Alada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479AD5AB-780E-4403-90C1-34D03D998BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E34322-334A-4BAA-92EB-6A47F9CBF0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99D9E961-B1E5-4078-8AAE-34212D01B749}"/>
   </bookViews>
@@ -293,9 +293,6 @@
     <t>TYRANNUS MELANCHOLICUS</t>
   </si>
   <si>
-    <t>Nombre_CientIfico</t>
-  </si>
-  <si>
     <t>Nombre_Comun</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>N_Clase</t>
+  </si>
+  <si>
+    <t>Nombre_Cientifico</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -729,25 +729,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="86.4">
@@ -758,7 +758,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>

--- a/aves.xlsx
+++ b/aves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIAZOVIEDO\Documents\GitHub\Clasificacion_Alada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E34322-334A-4BAA-92EB-6A47F9CBF0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BF6E85-5798-4B54-8EF7-4914A0308F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99D9E961-B1E5-4078-8AAE-34212D01B749}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Amplia distribución en Colombia, especialmente en áreas abiertas y semiabiertas</t>
   </si>
   <si>
-    <t>Presente en bosques y áreas semiabiertas del Tolima</t>
-  </si>
-  <si>
     <t>Presente en varias regiones de Colombia, especialmente en bosques y áreas semiabiertas</t>
   </si>
   <si>
@@ -167,12 +164,6 @@
     <t>Pájaro negro con un pico largo y curvado y una forma corporal distintiva.</t>
   </si>
   <si>
-    <t>Urraca Verde</t>
-  </si>
-  <si>
-    <t>Ave de tamaño medio con plumaje verde brillante y negro en la cara.</t>
-  </si>
-  <si>
     <t>Garceta Nevada</t>
   </si>
   <si>
@@ -315,13 +306,62 @@
   </si>
   <si>
     <t>Nombre_Cientifico</t>
+  </si>
+  <si>
+    <t>Urraca querrequerre, ken ken, urraca verde, urraca café, chara verde  y carriquí verdiamarillo</t>
+  </si>
+  <si>
+    <r>
+      <t>El plumaje de la parte dorsal de sus alas es verde oscuro. Su vientre y plumas de las patas y rabadilla son color amarillo. Tiene un parche en la garganta color negro al igual que el resto de su cabeza con excepción de una corona de color azul, unas marcas en los cachetes y unas "cejas" del mismo color azul. En el rostro, posee un plumón que va de azul oscuro a gris dependiendo del individuo. La iris es de color amarillo, carácter que lo diferencia de su congénere </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cyanocorax yncas luxuosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> cuya iris en color negro. Las dos subespecies de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C. yncas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> son las únicas dos del género que no tienen alas ni azules ni morado, sino verde; cosa que contradice la etimología del nombre "Cyanocorax" que viene del griego y significa "Cuervo azul oscuro".</t>
+    </r>
+  </si>
+  <si>
+    <t>Tierras bajas hasta las tierras altas húmedas; bosque caducifolio, vegetación secundaria, matorrales, bosques de pino-encino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +381,19 @@
       <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -378,6 +431,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B79A5C9-26D4-46C7-BC07-6AB24FF6B7F7}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -729,25 +783,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="86.4">
@@ -755,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
@@ -778,13 +832,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -801,13 +855,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -824,13 +878,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -847,13 +901,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -865,24 +919,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2">
+    <row r="7" spans="1:7" ht="72">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>1</v>
@@ -893,19 +947,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>1</v>
@@ -916,19 +970,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>1</v>
@@ -939,19 +993,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>1</v>
@@ -962,19 +1016,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>1</v>
@@ -985,19 +1039,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>1</v>
@@ -1008,19 +1062,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>1</v>
@@ -1031,19 +1085,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>1</v>
@@ -1054,19 +1108,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>1</v>
@@ -1077,19 +1131,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>1</v>
@@ -1100,19 +1154,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>1</v>
@@ -1123,19 +1177,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>1</v>
@@ -1146,19 +1200,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>1</v>

--- a/aves.xlsx
+++ b/aves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIAZOVIEDO\Documents\GitHub\Clasificacion_Alada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BF6E85-5798-4B54-8EF7-4914A0308F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD12A105-6DDE-468D-B5E1-3FD608AEEE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99D9E961-B1E5-4078-8AAE-34212D01B749}"/>
   </bookViews>
@@ -140,52 +140,7 @@
     <t>AM</t>
   </si>
   <si>
-    <t>Canta, Reese Mielera</t>
-  </si>
-  <si>
-    <t>Pájaro pequeño con plumaje amarillo brillante y una característica franja blanca sobre el ojo.</t>
-  </si>
-  <si>
-    <t>Paloma Bravía</t>
-  </si>
-  <si>
-    <t>Ave frecuente en entornos urbanos, con plumaje gris y cuello iridiscente.</t>
-  </si>
-  <si>
-    <t>Zopilote Negro, Chulo</t>
-  </si>
-  <si>
-    <t>Ave carroñera con plumaje completamente negro y cabeza grisácea sin plumas.</t>
-  </si>
-  <si>
-    <t>Garrapatero Ani</t>
-  </si>
-  <si>
-    <t>Pájaro negro con un pico largo y curvado y una forma corporal distintiva.</t>
-  </si>
-  <si>
-    <t>Garceta Nevada</t>
-  </si>
-  <si>
-    <t>Ave de tamaño mediano con plumaje blanco puro y patas negras con pies amarillos.</t>
-  </si>
-  <si>
     <t>Halcón Peregrino</t>
-  </si>
-  <si>
-    <t>Ave conocida por su velocidad y habilidades de caza, con un plumaje gris azulado y blanco.</t>
-  </si>
-  <si>
-    <t>Černícalo Amer</t>
-  </si>
-  <si>
-    <t>Pequeño halcón con plumaje colorido y hábitos de caza en áreas abiertas.</t>
-  </si>
-  <si>
-    <t>Golondrina Común</t>
-  </si>
-  <si>
-    <t>Ave migratoria con plumaje azul metálico en la espalda y blanco en el vientre.</t>
   </si>
   <si>
     <t>Pescador Águila</t>
@@ -355,6 +310,54 @@
   </si>
   <si>
     <t>Tierras bajas hasta las tierras altas húmedas; bosque caducifolio, vegetación secundaria, matorrales, bosques de pino-encino</t>
+  </si>
+  <si>
+    <t>Paloma Bravía,  paloma asiática o paloma doméstica</t>
+  </si>
+  <si>
+    <t>Ave frecuente en entornos urbanos, con plumaje gris y cuello iridiscente. Es el ancestro de las palomas domésticas, con las que se cruza, lo que demuestra su estrecho parentesco. Se parece mucho a la paloma doméstica gris típica, pero las domésticas presentan gran variedad de coloraciones y formas diferentes. Los adultos miden generalmente entre 29 y 37 cm de largo y tienen una envergadura alar de 62 a 72 cm.4​ Su peso oscila entre los 238 y 380 g, aunque las palomas domésticas o semidomésticas suelen sobrepasar este peso normal. ​ Su pico es negruzco con cera blanca en la base, patas rojizas o rosas, ojos ámbar (oscuros en el juvenil). No hay dimorfismo sexual pero el plumaje es muy variable entre individuos. El patrón original es cabeza, nuca y pecho color gris pizarra con lustre verde-púrpura sobre cabeza y vientre gris pálido. Alas grises con dos barras negras y rabadilla blanca que se hace gris pizarra hacia la cola y cuyas puntas son blancas.</t>
+  </si>
+  <si>
+    <t>Zopilote Negro, Chulo, buitre negro americano, zopilote, chulo, chula, chombo, gallinazo, gallinazo común, gallinazo de cabeza negra, gallinazo negro, jote cabeza negra, jote de cabeza negra, Golero, zamuro o zopilote negro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ave carroñera con plumaje completamente negro y cabeza grisácea sin plumas. Mide aproximadamente 74 cm de longitud y tiene una envergadura de 1,67 m. Posee plumaje negro, cuello y cabeza grises sin plumas y pico corto en forma de gancho. Generalmente es silencioso pero muy sociable, reuniéndose en grandes grupos.
+La especie es conocida por ser carroñera; en áreas pobladas por humanos hurga en basureros, come huevos y material vegetal en descomposición y puede matar o lesionar a mamíferos recién nacidos o incapacitados. Como otros buitres, juegan un papel importante en el ecosistema al eliminar la carroña que de otra manera sería terreno fértil para enfermedades. </t>
+  </si>
+  <si>
+    <t>Platanero</t>
+  </si>
+  <si>
+    <t>Pájaro pequeño con plumaje amarillo brillante y una característica franja blanca sobre el ojo. Mide unos 11 cm de longitud. Ambos sexos son similares. Las partes dorsales de alas y la espalda son de color gris oscuro y en la coronilla se vuelve negra, la rabadilla es amarilla. Tiene una lista superciliar blanca notoria, y otra negra al nivel del ojo. La garganta es blanca, el pecho es amarillo, y las demás partes inferiores son blanco amarillentas. El inmaduro es más opaco y tiene la banda superciliar amarillenta.
+El pico negro oscuro, de comisuras rojas, delgado y curvo, adaptado para tomar néctar de flores. Algunas veces perfora las flores por un lado, tomando el néctar sin polinizar la planta. No puede suspenderse en vuelo quieto como los colibríes, por lo que siempre debe posarse mientras se alimenta. Se alimenta mayormente de cambures (Musa sp.), mangos (Mangifera indica) y papaya o lechoza (Carica papaya).7​ También se alimenta de frutos e insectos. A menudo visita los jardines y puede resultar muy confiado. El apodo de ‘ave azucarera’ le viene de su apetencia por azúcar en grano dispensada en pozuelos o alimentadores de aves, lo que resulta un método común para atraer aves nectarívoras de los géneros Coereba, Dacnis y otros parecidos de lo que antes se consideraba Coerebidae, todas referidas como ‘aves azucareras’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jiriguelo, garrapatero asurcado, pijullo, garrapatero pijuy, garrapatero curtidor, pijuíl, anó de pico estriado, anó pico surcado, guardacaballos, matacaballos, chiclón, tijul y tijo,</t>
+  </si>
+  <si>
+    <t>Pájaro negro con un pico largo y curvado y una forma corporal distintiva. Mide unos 33 cm y pesa alrededor de 85 g. Los adultos son de color negro uniforme, a excepción de un ligero escamado claro en el cuello, la parte superior del pecho y la espalda. Su pico es ancho y curvo, y a diferencia del resto de miembros de su género no presenta surcos ni protuberancias. Su cola es larga y el iris de sus ojos marrón.</t>
+  </si>
+  <si>
+    <t>Garceta Nevada,  garceta nívea, arceta nivosa, garcita blanca, garza dedos dorados, garza chica o chusmita</t>
+  </si>
+  <si>
+    <t>Ave de tamaño mediano con plumaje blanco puro y patas negras con pies amarillos. El plumaje de un blanco puro de esta especie y las delicadas plumas que cuelgan de su cabeza, cuello y dorso, tienen justa fama por su belleza. Ambos sexos adquieren esta coloración al principio de la estación de cría, y erizan sus plumas para exhibirse en el nido. Fuera de esta temporada, es una garza pequeña blanca, de pico negro y pies amarillo brillante.</t>
+  </si>
+  <si>
+    <t>Ave conocida por su velocidad y habilidades de caza, con un plumaje gris azulado y blanco.  Es un halcón grande, del tamaño de un cuervo, con la espalda de color gris azulado y la parte inferior blanquecina con manchas oscuras; la cabeza es negra y cuenta con una amplia y característica bigotera también de color negro. Normalmente no vuela a velocidades superiores a los 100 km/h,3​ pero en picada o cuando caza y efectúa un ataque en picado puede alcanzar más de 300 km/h, lo que lo convierte en el animal más rápido del mundo</t>
+  </si>
+  <si>
+    <t>halconcito colorado, cuyaya, falcón común, quilico, cernícalo americano, cernícalo</t>
+  </si>
+  <si>
+    <t>Pequeño halcón con plumaje colorido y hábitos de caza en áreas abiertas. Mide de 23 a 27 cm de largo, pesando entre 85 y 140 g. Es una de las pocas especies de rapaces que presentan dimorfismo sexual evidente, incluso en el plumaje juvenil.
+Los machos, como es usual entre las rapaces diurnas, son de menor tamaño que las hembras. En su plumaje adulto tienen las cobertoras de las alas de un color grisáceo claro con puntos negros, y las primarias negras con puntos blancos. La cola es rojiza con una franja negra en el extremo seguida por puntas blancas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golondrina Común, </t>
+  </si>
+  <si>
+    <t>Ave migratoria con plumaje azul metálico en la espalda y blanco en el vientre. Se trata de un ave pequeña.11​ El macho adulto de la subespecie nominal (H. r. rustica) mide entre 14,6 y 19,9 cm de longitud, incluyendo los 2 a 7 cm de las alargadas plumas externas de la cola. Tiene una envergadura de entre 32 y 34,5 cm y pesa entre 16 y 22 g. Su parte superior es azul metálico y su frente, barbilla y garganta, rojizos. Una gruesa franja azul oscuro separa la garganta del pecho y abdomen blancuzcos. Las plumas externas de la cola son alargadas, lo que le brinda el distintivo aspecto profundamente ahorquillado de las golondrinas. Presenta una línea de manchas blancas a lo largo del extremo externo de la parte superior de la cola.9​ La apariencia de la hembra es similar a la del macho, pero las plumas de la cola son más cortas, el azul de la parte superior y de la banda del pecho es menos lustroso y el pecho y abdomen son más pálidos. El juvenil es más marrón y exhibe una cara rojiza más pálida y partes inferiores más blancas; carece de las largas plumas de la cola de los adultos.6</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -432,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B79A5C9-26D4-46C7-BC07-6AB24FF6B7F7}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -783,25 +789,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="86.4">
@@ -812,7 +818,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -827,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6">
+    <row r="3" spans="1:7" ht="43.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -835,10 +841,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -850,18 +856,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2">
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>78</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -873,18 +879,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2">
+    <row r="5" spans="1:7" ht="115.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -896,18 +902,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="187.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -924,16 +930,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
@@ -942,18 +948,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2">
+    <row r="8" spans="1:7" ht="57.6">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -965,18 +971,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2">
+    <row r="9" spans="1:7" ht="244.8">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -988,18 +994,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.2">
+    <row r="10" spans="1:7" ht="288">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -1011,18 +1017,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2">
+    <row r="11" spans="1:7" ht="28.8">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -1039,13 +1045,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1062,13 +1068,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1085,13 +1091,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1108,13 +1114,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1131,13 +1137,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1154,13 +1160,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
@@ -1177,13 +1183,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>27</v>
@@ -1200,13 +1206,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>

--- a/aves.xlsx
+++ b/aves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIAZOVIEDO\Documents\GitHub\Clasificacion_Alada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD12A105-6DDE-468D-B5E1-3FD608AEEE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EBE5C9-3E87-48FC-9889-78D2592534AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99D9E961-B1E5-4078-8AAE-34212D01B749}"/>
   </bookViews>
@@ -143,54 +143,6 @@
     <t>Halcón Peregrino</t>
   </si>
   <si>
-    <t>Pescador Águila</t>
-  </si>
-  <si>
-    <t>Gran ave rapaz conocida por su dieta exclusiva de peces, con un plumaje marrón oscuro y blanco.</t>
-  </si>
-  <si>
-    <t>Prendas de gasa</t>
-  </si>
-  <si>
-    <t>Garza de tamaño medio con un capirote negro y plumaje blanco.</t>
-  </si>
-  <si>
-    <t>Benteveo con</t>
-  </si>
-  <si>
-    <t>Ave de tamaño mediano con un plumaje amarillo brillante y una característica franja negra en la cabeza.</t>
-  </si>
-  <si>
-    <t>Tiranuelo Rojizo</t>
-  </si>
-  <si>
-    <t>Ave pequeña con plumaje principalmente castaño rojizo y hábitos insectívoros.</t>
-  </si>
-  <si>
-    <t>Rayador Negro</t>
-  </si>
-  <si>
-    <t>Ave acuática con un pico distintivo, largo y asimétrico, y plumaje negro y blanco.</t>
-  </si>
-  <si>
-    <t>Reinita Dorada</t>
-  </si>
-  <si>
-    <t>Pequeño pájaro migratorio con un plumaje amarillo brillante y negro.</t>
-  </si>
-  <si>
-    <t>Coludicto de</t>
-  </si>
-  <si>
-    <t>Pájaro pequeño con un plumaje marrón y una cola larga y distintiva.</t>
-  </si>
-  <si>
-    <t>Tirano Tropical</t>
-  </si>
-  <si>
-    <t>Ave de tamaño medio con plumaje gris y amarillo, conocida por su comportamiento territorial.</t>
-  </si>
-  <si>
     <t>COLUMBA LIVIA</t>
   </si>
   <si>
@@ -252,9 +204,6 @@
   </si>
   <si>
     <t>Estado_Conservacion</t>
-  </si>
-  <si>
-    <t>lore gallipavo, buitre pavo, buitre americano cabecirrojo, aura tiñosa, gallinazo de cabeza roja, jote de cabeza colorada, maura, zopilote, pishco o urubú de cabeza roja (Cathartes aura)</t>
   </si>
   <si>
     <t>N_Clase</t>
@@ -347,17 +296,70 @@
     <t>Ave conocida por su velocidad y habilidades de caza, con un plumaje gris azulado y blanco.  Es un halcón grande, del tamaño de un cuervo, con la espalda de color gris azulado y la parte inferior blanquecina con manchas oscuras; la cabeza es negra y cuenta con una amplia y característica bigotera también de color negro. Normalmente no vuela a velocidades superiores a los 100 km/h,3​ pero en picada o cuando caza y efectúa un ataque en picado puede alcanzar más de 300 km/h, lo que lo convierte en el animal más rápido del mundo</t>
   </si>
   <si>
-    <t>halconcito colorado, cuyaya, falcón común, quilico, cernícalo americano, cernícalo</t>
-  </si>
-  <si>
     <t>Pequeño halcón con plumaje colorido y hábitos de caza en áreas abiertas. Mide de 23 a 27 cm de largo, pesando entre 85 y 140 g. Es una de las pocas especies de rapaces que presentan dimorfismo sexual evidente, incluso en el plumaje juvenil.
 Los machos, como es usual entre las rapaces diurnas, son de menor tamaño que las hembras. En su plumaje adulto tienen las cobertoras de las alas de un color grisáceo claro con puntos negros, y las primarias negras con puntos blancos. La cola es rojiza con una franja negra en el extremo seguida por puntas blancas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Golondrina Común, </t>
-  </si>
-  <si>
     <t>Ave migratoria con plumaje azul metálico en la espalda y blanco en el vientre. Se trata de un ave pequeña.11​ El macho adulto de la subespecie nominal (H. r. rustica) mide entre 14,6 y 19,9 cm de longitud, incluyendo los 2 a 7 cm de las alargadas plumas externas de la cola. Tiene una envergadura de entre 32 y 34,5 cm y pesa entre 16 y 22 g. Su parte superior es azul metálico y su frente, barbilla y garganta, rojizos. Una gruesa franja azul oscuro separa la garganta del pecho y abdomen blancuzcos. Las plumas externas de la cola son alargadas, lo que le brinda el distintivo aspecto profundamente ahorquillado de las golondrinas. Presenta una línea de manchas blancas a lo largo del extremo externo de la parte superior de la cola.9​ La apariencia de la hembra es similar a la del macho, pero las plumas de la cola son más cortas, el azul de la parte superior y de la banda del pecho es menos lustroso y el pecho y abdomen son más pálidos. El juvenil es más marrón y exhibe una cara rojiza más pálida y partes inferiores más blancas; carece de las largas plumas de la cola de los adultos.6</t>
+  </si>
+  <si>
+    <t>Golondrina Común</t>
+  </si>
+  <si>
+    <t>Gran ave rapaz conocida por su dieta exclusiva de peces, con un plumaje marrón oscuro y blanco. El águila pescadora mide entre 52 y 60 cm de alto, con una envergadura que oscila entre 152 y 167 cm. De partes superiores castaño oscuro, e inferiores blancas, jaspeadas de oscuro, con una máscara oscura a los lados de la cabeza. De cola larga y estrecha, y alas angulosas, es fácil de identificar. Posee unas plumas alargadas en la nuca que forman una cresta que se eriza con frecuencia.
+Los ejemplares juveniles se identifican por las manchas marrón claro de su plumaje y, en general, por un tono más pálido. Los machos adultos se distinguen de las hembras por el cuerpo más delgado y las alas más estrechas. Son fáciles de distinguir al ver una pareja, pero no tanto con individuos solitarios.</t>
+  </si>
+  <si>
+    <t>Es una especie inconfundible al ser la única garza con pico y cara de color azul y una corona negra. El vientre, el pecho y el cuello son de color blanco amarillento o crema claro. El plumaje de las alas y la espalda es de color blanco. Entre cuatro y cinco plumas blancas se extieden de su corona hacia atrás, lo que le ha dado a la especie el nombre de garza peinada.​ No existe mayor dimorfismo sexual en cuanto a coloración</t>
+  </si>
+  <si>
+    <t>Bichajué o bichofué gritón, chamaria , benteveo, bienteveo común, ajisero pitogüé,  cristofué, bichajué o bichofué gritón, chamaria, chicha fría</t>
+  </si>
+  <si>
+    <t>Ave de tamaño mediano con un plumaje amarillo brillante y una característica franja negra en la cabeza. Mide entre 21 y 26 cm de longitud. Tiene cabeza grande, alas largas y patas cortas. El pico es tan largo como la cabeza y termina en forma de gancho. El lomo y la cola son de color pardo verdoso. La cabeza es negra con dos franjas blancas a modo de cejas y garganta blanca, lo cual le da el aspecto de tener antifaz y boina negros. El pecho y el abdomen son de color amarillo vivo y tiene una corona oculta del mismo color. No presenta dimorfismo sexual</t>
+  </si>
+  <si>
+    <t>Ave pequeña con plumaje principalmente castaño rojizo y hábitos insectívoros.  En promedio mide 12,7 cm de longitud y pesa 9,8 g. El dorso es de color canela oscuro rufo; corona parda acanelada, con matices ocultos dorados; alas y cola oscuras con franjas negras y canelas y cara inferior negruzca; pecho y vientre color canela claro. La subespecie P. c. pyrrhopterus presenta dorso oliváceo y cola marrón.</t>
+  </si>
+  <si>
+    <t>El rayador americano o pico tijera vive en grupos sueltos en bancos de arena y playas de arena, en América; pone de 3 a 7 huevos de color beis muy oscuros con manchas azules, que son incubados tanto por el macho como por la hembra. Los polluelos permancecen en el nido (nidícolas) y se colocan discretamente en la depresión del nido o "raspado", en el que los padres los protegen de las altas temperaturas. A veces pueden cavar sus propias depresiones en la arena.3​ Los padres alimentan a los pichones casi exclusivamente durante el día, y casi no les dan ningún alimento durante la noche, debido a que a veces, en ese horario, toda la población de los adultos sale de la colonia para buscar comida. A pesar de que las mandíbulas son de igual longitud en la eclosión, rápidamente se vuelven desiguales en ciernes. Son aves que presentan heteromaxilarfismo; es decir, que a partir de su juventud presentan el pico con el maxilar inferior más grande que el superior.</t>
+  </si>
+  <si>
+    <t>Reinita Dorada, reinita gorjinaranja,  reinita de fuego, reinita pechinaranja, reinita de Blackburn y cigüita del frío</t>
+  </si>
+  <si>
+    <t>Pequeño pájaro migratorio con un plumaje amarillo brillante y negro. Son de 11,5 cm de largo y pesan 8,5 g . En el verano, el macho hace alarde de su lomo gris oscuro y dobles franjas blancas en las alas, con pecho amarillento y coronilla chocolate oscuro. Las partes inferiores de esta ave son blancas, y matizadas con amarillo y mechones negros. La cabeza es bastante colorida amarilla y negro, con una garganta de color anaranjado.
+Otros plumajes son versiones descoloridas del macho del verano, y tienen una carencia en particular en el diseño de la cabeza, amarilla y gris pálido, en vez de negro.</t>
+  </si>
+  <si>
+    <t>Pijuí de Azara, chamicero piscuís, pijuí de ceja canela, cola-espina de Azara, güitío de Azara</t>
+  </si>
+  <si>
+    <t>Pájaro pequeño con un plumaje marrón y una cola larga y distintiva. Se distribuye a lo largo de la cordillera de los Andes, desde el noroeste de Venezuela, por Colombia, Ecuador, Perú, Bolivia, hasta el noroeste argentino. Mide entre 15 y 18 cm de longitud y pesa entre 12 y 18 gramos.4​ En la mayor parte de su zona, las partes superiores son principalmente de color pardo oliváceo, contrastando con la corona rojiza y la frente pardusca, y las alas y la cola, bastante larga, también de color rojizo; la garganta es negra escamada de blanco, la cara y partes inferiores pueden variar del grisáceo (más al sur) al blanquecino (más al norte). Las aves del sur de Bolivia y noroeste de Argentina exhiben una lista superciliar beige y las partes inferiores más pálidas</t>
+  </si>
+  <si>
+    <t>Sirirí común, suirirí grande,  suirirí real, Tirano Tropical, benteveo real, juan caballero, chiyo , pecho amarillo, tirano pirirí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ave de tamaño medio con plumaje gris y amarillo, conocida por su comportamiento territorial.Mide aproximadamente 20 cm de longitud y pesa alrededor de 40 g. El macho no se diferencia de la hembra con respecto a su plumaje, tiene el abdomen de un color amarillo, el pecho de un color oliváceo el cuello es de un color gris claro, la cabeza es de color gris y el dorso verde grisáceo. Esta especie es muy común, conspícua y casi omnipresente en una amplia variedad de habitats, a menudo cerca de agua, en áreas abiertas, rurales y urbanas, es menos numeroso en regiones más boscosas. Habita principalmente abajo de los 1800 m s. n. m. de altitud, algunas veces más alto, hasta los 2200 m en regiones áridas.​ Ampliamente diseminado a través de tierras bajas principalmente en arbustales abiertos y semi-áridos con árboles dispersos, tales como cerrados, y sabanas, y desde desiertos a áreas montanas áridas o húmedas. </t>
+  </si>
+  <si>
+    <t>Lore gallipavo, buitre pavo, buitre americano cabecirrojo, aura tiñosa, gallinazo de cabeza roja, jote de cabeza colorada, maura, zopilote, pishco o urubú de cabeza roja (Cathartes aura)</t>
+  </si>
+  <si>
+    <t>Halconcito colorado, cuyaya, falcón común, quilico, cernícalo americano, cernícalo</t>
+  </si>
+  <si>
+    <t>Águila pescadora, halieto,​ guincho​ o gavilán pescador</t>
+  </si>
+  <si>
+    <t>Garza pileada, garza capirotada o garcilla peinada</t>
+  </si>
+  <si>
+    <t>Atrapamoscas canela o canelo, birro chico, atrapamoscas acanelado, mosquerito canela o canelo</t>
+  </si>
+  <si>
+    <t>Rayador americano, pico tijera</t>
   </si>
 </sst>
 </file>
@@ -434,10 +436,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B79A5C9-26D4-46C7-BC07-6AB24FF6B7F7}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -789,25 +791,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="86.4">
@@ -818,9 +820,9 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -841,10 +843,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -861,13 +863,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -884,13 +886,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -902,18 +904,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="187.2">
+    <row r="6" spans="1:7" ht="100.8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -930,16 +932,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
@@ -953,13 +955,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -971,18 +973,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="244.8">
+    <row r="9" spans="1:7" ht="43.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>88</v>
+      <c r="D9" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -994,18 +996,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="288">
+    <row r="10" spans="1:7" ht="43.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -1022,13 +1024,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -1040,18 +1042,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.2">
+    <row r="12" spans="1:7" ht="28.8">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1068,13 +1070,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1086,18 +1088,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.6">
+    <row r="14" spans="1:7" ht="72">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1109,18 +1111,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="43.2">
+    <row r="15" spans="1:7" ht="57.6">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1132,18 +1134,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.2">
+    <row r="16" spans="1:7" ht="28.8">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1155,18 +1157,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8">
+    <row r="17" spans="1:7" ht="57.6">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
@@ -1178,18 +1180,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="43.2">
+    <row r="18" spans="1:7" ht="57.6">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>27</v>
@@ -1201,18 +1203,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57.6">
+    <row r="19" spans="1:7" ht="72">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>85</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
